--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -6,17 +6,17 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="35067" sheetId="2" r:id="rId2"/>
+    <x:sheet name="35063" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Titles" localSheetId="0">'35067'!1:1</x:definedName>
+    <x:definedName name="_xlnm.Print_Titles" localSheetId="0">'35063'!1:1</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,313 +33,415 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1240191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وائل علي محمد علي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Wael Ali Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم محمد شريف محمد صالح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Mohamed Sherif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال محمد السيد محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bilal Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم معتز بالله محمد الحريري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem Moataz-Bellah Elhariry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حمزة محمد عبدالله محمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza Muhammed Abdallah Muhammed Muhammed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى محمد ابراهيم محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Mohamed Ebrahim Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما ايمن نبيل عبدالستار علي مقلد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama ayman nabil abd el satar ali maklad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما طارق محمود جاب الله سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2250001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف محمد وائل سعيد محمد نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saief Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شمس محمد محمود عبدالمنعم سماحه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shams mohamed mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طاهر محمود طاهر محمد يوسف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن ناجى سمير النجدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdulrahman Naji Samir Al-Najdi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله فريد عبدالله محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علا سليمان فؤاد حداد عبدالجليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ola Soliman Fouad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمود نجاح مكاوى خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر ايهاب حسين مجاهد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ihab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمة محمد فتحى سرور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فيلوباتير هانى ماهر اسكندر حنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Felopateer Hany Maher Eskander</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لوجي جورج ماهر شمعي بطرس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lugi George maher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايا معتصم احمد سمير ابوشادي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد جمال يونس احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Gamal Yones</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد خالد عبدالعزيز محمد السنهراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed khaled abd el azeez mohamedd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان ايهاب أحمد البدوي سالم محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Ehab Ahmed Elbadawy Salem Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240369</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم احمد عادل احمد علي فودة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Ahmed adel Ahmed ali Fouda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم حاتم محمد فؤاد محمد عمارة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maryem Hatem Mohamed Emara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2250004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى محمد عبدالشكور على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوال صلاح صبحي السيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nawal Salah Sobhi El-Sayed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور محمد عبد الحميد عبد الرحمن الربع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Mohamed Abdelhamed Abdelrahman Alroba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يارا محمد توفيق سليم محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yara Mohamed Tawfik Seleim Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسمين سراج محمد عصمت محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yasmin Serag Mohamed Esmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسين عماد فتحي السيد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassin emad fathy elsayed selyman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف خالد احمد عباس حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Khaled Ahmed Abbas Hassan</x:t>
+    <x:t>1240002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد اسامه احمد فتحى عبد اللطيف طه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Osama Ahmed Fathy Abdellatif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد طارق منير يوسف المنوفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdallah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد على يونس عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed mohamed aly younes omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد فوزي عبدالمعبود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى طارق عبد اللطيف محمد خطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Tarek Abdellatif Mohamed Khatib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين حسام حسين عمران عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رؤى محمد عيد محمد سيد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roaa mohamed eid mohamed sayed soliman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان وائل عبد الحميد محمد هلال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Wael Abdelhameed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رودينا لؤى خليل عبد العليم خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rodina Loay Khalil Abd ElAleem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمود حشمت سيف النصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره علاء محمد عبدالعظيم بيومي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sara alaa mohamed abdelazim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240196</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف طارق عبدالستار محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif tarek abd El sattar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف علاء الدين سمير أحمد اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif Alaa Eldin Samir Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه محمود محمد احمد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aliah Mahmoud Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد محمد حسن محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن غريب احمد محمد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDEL RAHMAN GHAREB AHAMED MOHAMED HASANEIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عصام  محمد  عبد الناصر  عبد النبى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Essam Mohamed Abdel Nasser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد عبد المنجى مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed abdelmongy mostafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد على سليمان عيطه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Ali Soliman Aitah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر سامح بدير على نصير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Sameh Bedair Nosair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عبد الهادي على محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين يسري العزب هلال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Esam Eldeen Yousry Elazab Helal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر علاء عبدالرحيم ابراهيم عبدالرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Alaa Abdelraheem Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد احمد التابعى عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد محمد محمد الحفناوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Mohamed Mohamed Elhefnawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد مصطفى محمد الفحام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فهد عمرو محمد ابوالنصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAHD AMR MOHAMED ABUELNASR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم احمد عبدالكريم فهمي عزاز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kariem Ahmed Abdelkarim Fahmi Azaz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم محمد فاروق حسن الشافعى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karim mohamed farouk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240353</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">مايا  شريف عبداللطيف محمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maya Sherif Abdellatif Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد سعيد صالح المهندس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed ahmed saied saleh elmohandes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد سيد حسن عبد الرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد فتحي سعد فتحي اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed fathy saad fathy Ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نبيل صديق سليمان عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Nabil Seddik Soliman Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان وليد جمال الدين زكي ابوشبيكه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Walid Gamal el din Zaki Abou Shebika</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ مصطفى هاشم محمد جاد الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Mostafa Hashim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك امجد محمد السيد حجي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak amgad mohamed elsayed heggy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك هاني يسري عزو</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MALAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند ايهاب محمد سعيد عباس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نغم طارق محمد احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagham Tarek Mohamed Ahmed Kassem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور محمد طلعت محمد داود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noor Mohamed Talaat Mohamed Dawoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي اسامه محمد لطفي فريد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yahya Osama Mohamed Lotfy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يمنى غلاب محمد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yumna  Ghallab Mohamed Aly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف هلال جمعه محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef helal gomaa mohammed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -455,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -763,8 +865,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.010625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="48.490625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.220625000000002" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="51.490625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -842,9 +944,11 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6804378819</x:v>
+        <x:v>45907.664674919</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -867,16 +971,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4151976852</x:v>
+        <x:v>45907.6648148958</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -899,16 +1003,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6786435532</x:v>
+        <x:v>45915.9139385417</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -931,16 +1035,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6656646644</x:v>
+        <x:v>45915.914440081</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -963,16 +1067,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4151114583</x:v>
+        <x:v>45907.6646043981</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -995,16 +1099,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6717293634</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1027,16 +1131,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1059,16 +1163,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1091,16 +1195,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45915.9146612616</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1123,16 +1227,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1155,16 +1259,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1196,7 +1298,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1224,11 +1326,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1251,16 +1351,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45915.9120101505</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1283,16 +1383,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1315,16 +1415,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1347,16 +1447,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45915.9148672106</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1379,16 +1479,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45915.8748535069</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1411,14 +1511,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45915.9136492708</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1450,7 +1552,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45915.9137758912</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,7 +1584,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1514,7 +1616,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45915.9154996528</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,11 +1644,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45915.9147579514</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1569,16 +1669,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1601,16 +1701,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1633,16 +1733,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45915.9145530093</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1665,16 +1765,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45915.9126289352</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1697,16 +1797,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1729,16 +1829,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1761,16 +1861,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1793,16 +1893,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,16 +1925,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45909.4148378472</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,16 +1957,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45915.9143423264</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,16 +1989,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1921,16 +2021,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1948,16 +2048,398 @@
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
     </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45909.4149671644</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6646261227</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.4157712963</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.6650168634</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45915.9149688657</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6646564468</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45907.4194505787</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.664794213</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s"/>
+      <x:c r="E45" s="3">
+        <x:v>45915.8836662384</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45909.4148928588</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45915.9153409722</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45915.9138620718</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20510]20510-60-الجيزة الرئيسي Time : Thursday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20504]20504-60-الجيزة الرئيسي Time : Sunday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20510]20510-60-الجيزة الرئيسي Time : Thursday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20504]20504-60-الجيزة الرئيسي Time : Sunday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20510]20510-60-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20504]20504-60-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -6,17 +6,17 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="35063" sheetId="2" r:id="rId2"/>
+    <x:sheet name="35067" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Titles" localSheetId="0">'35063'!1:1</x:definedName>
+    <x:definedName name="_xlnm.Print_Titles" localSheetId="0">'35067'!1:1</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,415 +33,313 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1240002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد اسامه احمد فتحى عبد اللطيف طه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Osama Ahmed Fathy Abdellatif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد طارق منير يوسف المنوفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد على يونس عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed mohamed aly younes omar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد فوزي عبدالمعبود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنى طارق عبد اللطيف محمد خطيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Tarek Abdellatif Mohamed Khatib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسين حسام حسين عمران عمران</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رؤى محمد عيد محمد سيد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roaa mohamed eid mohamed sayed soliman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان وائل عبد الحميد محمد هلال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rawan Wael Abdelhameed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رودينا لؤى خليل عبد العليم خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rodina Loay Khalil Abd ElAleem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240318</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ساره علاء محمد عبدالعظيم بيومي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sara alaa mohamed abdelazim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240196</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف طارق عبدالستار محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saif tarek abd El sattar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف علاء الدين سمير أحمد اسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seif Alaa Eldin Samir Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه محمود محمد احمد إبراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aliah Mahmoud Mohamed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد حسن محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن غريب احمد محمد حسانين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABDEL RAHMAN GHAREB AHAMED MOHAMED HASANEIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عصام  محمد  عبد الناصر  عبد النبى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Essam Mohamed Abdel Nasser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد عبد المنجى مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali mohamed abdelmongy mostafa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد على سليمان عيطه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Ali Soliman Aitah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر سامح بدير على نصير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Sameh Bedair Nosair</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عبد الهادي على محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عصام الدين يسري العزب هلال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Esam Eldeen Yousry Elazab Helal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر علاء عبدالرحيم ابراهيم عبدالرحيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Alaa Abdelraheem Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد احمد التابعى عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد محمد محمد الحفناوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Mohamed Mohamed Elhefnawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد مصطفى محمد الفحام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فهد عمرو محمد ابوالنصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAHD AMR MOHAMED ABUELNASR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم احمد عبدالكريم فهمي عزاز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kariem Ahmed Abdelkarim Fahmi Azaz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم محمد فاروق حسن الشافعى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>karim mohamed farouk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240353</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">مايا  شريف عبداللطيف محمد </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maya Sherif Abdellatif Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد سعيد صالح المهندس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed ahmed saied saleh elmohandes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد سيد حسن عبد الرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHAMED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد فتحي سعد فتحي اسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed fathy saad fathy Ismail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد نبيل صديق سليمان عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Nabil Seddik Soliman Omar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان وليد جمال الدين زكي ابوشبيكه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Walid Gamal el din Zaki Abou Shebika</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>معاذ مصطفى هاشم محمد جاد الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moaz Mostafa Hashim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك امجد محمد السيد حجي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malak amgad mohamed elsayed heggy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك هاني يسري عزو</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MALAK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند ايهاب محمد سعيد عباس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نغم طارق محمد احمد قاسم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nagham Tarek Mohamed Ahmed Kassem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور محمد طلعت محمد داود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Noor Mohamed Talaat Mohamed Dawoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيي اسامه محمد لطفي فريد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yahya Osama Mohamed Lotfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يمنى غلاب محمد على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yumna  Ghallab Mohamed Aly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف هلال جمعه محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef helal gomaa mohammed</x:t>
+    <x:t>1240191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل علي محمد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Wael Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادهم محمد شريف محمد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adham Mohamed Sherif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال محمد السيد محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bilal Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم معتز بالله محمد الحريري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Moataz-Bellah Elhariry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة محمد عبدالله محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Muhammed Abdallah Muhammed Muhammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد ابراهيم محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Ebrahim Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما ايمن نبيل عبدالستار علي مقلد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama ayman nabil abd el satar ali maklad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما طارق محمود جاب الله سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف محمد وائل سعيد محمد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saief Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شمس محمد محمود عبدالمنعم سماحه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shams mohamed mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>طاهر محمود طاهر محمد يوسف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن ناجى سمير النجدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdulrahman Naji Samir Al-Najdi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علا سليمان فؤاد حداد عبدالجليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ola Soliman Fouad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ايهاب حسين مجاهد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ihab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمة محمد فتحى سرور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فيلوباتير هانى ماهر اسكندر حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Felopateer Hany Maher Eskander</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لوجي جورج ماهر شمعي بطرس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lugi George maher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايا معتصم احمد سمير ابوشادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جمال يونس احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Gamal Yones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد عبدالعزيز محمد السنهراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed khaled abd el azeez mohamedd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان ايهاب أحمد البدوي سالم محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Ehab Ahmed Elbadawy Salem Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد عادل احمد علي فودة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Ahmed adel Ahmed ali Fouda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم حاتم محمد فؤاد محمد عمارة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryem Hatem Mohamed Emara</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد عبدالشكور على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240384</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوال صلاح صبحي السيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nawal Salah Sobhi El-Sayed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور محمد عبد الحميد عبد الرحمن الربع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Mohamed Abdelhamed Abdelrahman Alroba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يارا محمد توفيق سليم محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yara Mohamed Tawfik Seleim Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسمين سراج محمد عصمت محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yasmin Serag Mohamed Esmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين عماد فتحي السيد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassin emad fathy elsayed selyman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف خالد احمد عباس حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Khaled Ahmed Abbas Hassan</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -557,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -865,8 +763,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.220625000000002" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="51.490625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.010625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.490625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -944,11 +842,9 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45907.664674919</x:v>
+        <x:v>45907.6804378819</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -971,16 +867,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="D3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6648148958</x:v>
+        <x:v>45909.4151976852</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1003,16 +899,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E4" s="3">
-        <x:v>45915.9139385417</x:v>
+        <x:v>45907.6786435532</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1035,16 +931,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.914440081</x:v>
+        <x:v>45907.6656646644</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1067,16 +963,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6646043981</x:v>
+        <x:v>45908.4151114583</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1099,16 +995,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45907.6717293634</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1131,16 +1027,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1163,16 +1059,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1195,16 +1091,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9146612616</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1227,16 +1123,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1259,14 +1155,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1298,7 +1196,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1326,9 +1224,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1351,16 +1251,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9120101505</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1383,16 +1283,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1415,16 +1315,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1447,16 +1347,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9148672106</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1479,16 +1379,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.8748535069</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1511,16 +1411,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45915.9136492708</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1552,7 +1450,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9137758912</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1584,7 +1482,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1616,7 +1514,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9154996528</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1644,9 +1542,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9147579514</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,16 +1569,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,16 +1601,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,16 +1633,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9145530093</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,16 +1665,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9126289352</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,16 +1697,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,16 +1729,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,16 +1761,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,16 +1793,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,16 +1825,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4148378472</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,16 +1857,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9143423264</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,16 +1889,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6656868056</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,16 +1921,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2048,398 +1948,16 @@
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
     </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45909.4149671644</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.6646261227</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.4157712963</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45907.6650168634</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45915.9149688657</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45907.6646564468</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45907.4194505787</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.664794213</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s"/>
-      <x:c r="E45" s="3">
-        <x:v>45915.8836662384</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45909.4148928588</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45915.9153409722</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45915.9138620718</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20504]20504-60-الجيزة الرئيسي Time : Sunday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20510]20510-60-الجيزة الرئيسي Time : Thursday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20504]20504-60-الجيزة الرئيسي Time : Sunday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20510]20510-60-الجيزة الرئيسي Time : Thursday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20504]20504-60-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Linear Algebra and Multivariable Integrals (MTHS102) Location : [20510]20510-60-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -82,6 +82,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Muhammed Abdallah Muhammed Muhammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ديفيد مارك مكرم شاكر قرياقص</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Mark Makram Shaker</x:t>
   </x:si>
   <x:si>
     <x:t>1230044</x:t>
@@ -455,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +764,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1036,7 +1045,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45919.5900731829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1416,9 +1425,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1441,16 +1452,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,7 +1491,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1514,7 +1523,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1546,7 +1555,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1578,7 +1587,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1610,7 +1619,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1642,7 +1651,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1674,7 +1683,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1706,7 +1715,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1738,7 +1747,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1770,7 +1779,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1802,7 +1811,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6656868056</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1947,6 +1956,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -156,6 +156,15 @@
     <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
   </x:si>
   <x:si>
+    <x:t>1240326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عادل ابراهيم حسين السعيد عبد الله شعيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adel Ebrahim Hussein Shoaib</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250207</x:t>
   </x:si>
   <x:si>
@@ -259,6 +268,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Ehab Ahmed Elbadawy Salem Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم أحمد محمود سامى بشر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -464,7 +482,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -764,7 +782,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -772,7 +790,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.010625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.490625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1301,7 +1319,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1333,7 +1351,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1365,7 +1383,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1397,7 +1415,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1429,7 +1447,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1457,9 +1475,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,16 +1502,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1523,7 +1541,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1555,7 +1573,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1587,7 +1605,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1619,7 +1637,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1651,7 +1669,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1683,7 +1701,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1715,7 +1733,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1747,7 +1765,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1779,7 +1797,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1811,7 +1829,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1843,7 +1861,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1875,7 +1893,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1907,7 +1925,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1939,7 +1957,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1971,7 +1989,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1988,6 +2006,70 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -259,6 +259,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed khaled abd el azeez mohamedd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240367</x:t>
@@ -482,7 +491,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -782,7 +791,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1701,7 +1710,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6656868056</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2070,6 +2079,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -93,6 +93,15 @@
     <x:t>David Mark Makram Shaker</x:t>
   </x:si>
   <x:si>
+    <x:t>1240059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رهف عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230044</x:t>
   </x:si>
   <x:si>
@@ -163,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Adel Ebrahim Hussein Shoaib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>4250207</x:t>
@@ -491,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -791,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1104,7 +1122,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45920.8959554398</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1136,7 +1154,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1168,7 +1186,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1200,7 +1218,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1232,7 +1250,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1264,7 +1282,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1296,7 +1314,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1328,7 +1346,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1360,7 +1378,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1392,7 +1410,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1424,7 +1442,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1456,7 +1474,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1516,9 +1534,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1541,16 +1561,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1573,16 +1593,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1614,7 +1632,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1646,7 +1664,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1678,7 +1696,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1710,7 +1728,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1742,7 +1760,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1774,7 +1792,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1806,7 +1824,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1838,7 +1856,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1870,7 +1888,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1902,7 +1920,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1934,7 +1952,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1966,7 +1984,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1998,7 +2016,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2030,7 +2048,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2062,7 +2080,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2094,7 +2112,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2111,6 +2129,70 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -111,6 +111,15 @@
     <x:t>Salma Mohamed Ebrahim Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240074</x:t>
   </x:si>
   <x:si>
@@ -192,6 +201,15 @@
     <x:t>Abdulrahman Naji Samir Al-Najdi</x:t>
   </x:si>
   <x:si>
+    <x:t>1240331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد سامي عبدالباقي ابو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250180</x:t>
   </x:si>
   <x:si>
@@ -210,6 +228,15 @@
     <x:t>Ola Soliman Fouad</x:t>
   </x:si>
   <x:si>
+    <x:t>1240091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على احمد محمد محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250183</x:t>
   </x:si>
   <x:si>
@@ -219,6 +246,15 @@
     <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250185</x:t>
   </x:si>
   <x:si>
@@ -226,6 +262,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ihab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو صبري عبداللطيف ابراهيم طه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amr sabry abdullatif ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>4240037</x:t>
@@ -509,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1186,7 +1231,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1218,7 +1263,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1250,7 +1295,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1282,7 +1327,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1314,7 +1359,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1346,7 +1391,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1378,7 +1423,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1410,7 +1455,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1442,7 +1487,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1474,7 +1519,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1506,7 +1551,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1538,7 +1583,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1570,7 +1615,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1598,9 +1643,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1623,16 +1670,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1655,16 +1702,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1687,16 +1734,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1719,16 +1766,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1751,16 +1798,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1792,7 +1837,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1824,7 +1869,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1856,7 +1901,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1888,7 +1933,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1920,7 +1965,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1952,7 +1997,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1984,7 +2029,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2016,7 +2061,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2048,7 +2093,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2080,7 +2125,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2112,7 +2157,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,7 +2189,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2176,7 +2221,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2238,166 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45908.4149983796</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6652498495</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45908.4151152778</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -183,6 +183,15 @@
     <x:t>Adel Ebrahim Hussein Shoaib</x:t>
   </x:si>
   <x:si>
+    <x:t>1240080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن خالد محمد عبد المنعم الامير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Khaled Elameer</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240178</x:t>
   </x:si>
   <x:si>
@@ -264,6 +273,15 @@
     <x:t>Omar Ihab</x:t>
   </x:si>
   <x:si>
+    <x:t>1240103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حاتم محمد محمود الفحل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240116</x:t>
   </x:si>
   <x:si>
@@ -313,6 +331,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Gamal Yones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حمزه محمد زعزوع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Hamza Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240182</x:t>
@@ -554,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -854,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1487,7 +1514,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45922.5312450232</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1519,7 +1546,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1551,7 +1578,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1583,7 +1610,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1615,7 +1642,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1647,7 +1674,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1679,7 +1706,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1711,7 +1738,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1743,7 +1770,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1775,7 +1802,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.4261710648</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1803,9 +1830,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45922.4940454861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1828,16 +1857,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1860,16 +1889,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1901,7 +1928,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1933,7 +1960,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1965,7 +1992,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1997,7 +2024,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2029,7 +2056,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45922.5055743403</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2061,7 +2088,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2093,7 +2120,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2125,7 +2152,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2157,7 +2184,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2189,7 +2216,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2221,7 +2248,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2253,7 +2280,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2285,7 +2312,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2317,7 +2344,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2349,7 +2376,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2381,7 +2408,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2398,6 +2425,102 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45908.4151152778</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد جاد مرشدي عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1240116</x:t>
@@ -581,7 +590,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -881,7 +890,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1866,7 +1875,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.4261710648</x:v>
+        <x:v>45925.6680363426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1894,9 +1903,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1919,16 +1930,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1960,7 +1969,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1992,7 +2001,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2024,7 +2033,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2056,7 +2065,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45922.5055743403</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2088,7 +2097,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45922.5055743403</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2120,7 +2129,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2152,7 +2161,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2184,7 +2193,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2216,7 +2225,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2248,7 +2257,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2280,7 +2289,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2312,7 +2321,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2344,7 +2353,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2376,7 +2385,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2408,7 +2417,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2440,7 +2449,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2472,7 +2481,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2504,7 +2513,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6656868056</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2521,6 +2530,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -57,6 +57,15 @@
     <x:t>Adham Mohamed Sherif</x:t>
   </x:si>
   <x:si>
+    <x:t>1240029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امين حاتم على محمد زين الدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amin Hatem Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240039</x:t>
   </x:si>
   <x:si>
@@ -331,15 +340,6 @@
   </x:si>
   <x:si>
     <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد جمال يونس احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Gamal Yones</x:t>
   </x:si>
   <x:si>
     <x:t>4250211</x:t>
@@ -1075,7 +1075,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6656646644</x:v>
+        <x:v>45927.4185126505</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1107,7 +1107,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4151114583</x:v>
+        <x:v>45907.6656646644</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1139,7 +1139,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6717293634</x:v>
+        <x:v>45908.4151114583</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1171,7 +1171,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.5900731829</x:v>
+        <x:v>45907.6717293634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1203,7 +1203,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.8959554398</x:v>
+        <x:v>45919.5900731829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1235,7 +1235,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45920.8959554398</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1267,7 +1267,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1299,7 +1299,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1331,7 +1331,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1363,7 +1363,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1395,7 +1395,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1427,7 +1427,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1459,7 +1459,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1491,7 +1491,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1523,7 +1523,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.5312450232</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1555,7 +1555,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45922.5312450232</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1587,7 +1587,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1619,7 +1619,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1651,7 +1651,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1683,7 +1683,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1715,7 +1715,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1747,7 +1747,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1811,7 +1811,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1843,7 +1843,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.4940454861</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1875,7 +1875,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45925.6680363426</x:v>
+        <x:v>45922.4940454861</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1907,7 +1907,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.4261710648</x:v>
+        <x:v>45925.6680363426</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1935,9 +1935,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1960,16 +1962,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2001,7 +2001,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2033,7 +2033,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2065,7 +2065,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -111,6 +111,15 @@
     <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد مصباح وجيه حسن شريف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Mohamed Mesbah Wagih Hassan Sherif</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230044</x:t>
   </x:si>
   <x:si>
@@ -138,15 +147,6 @@
     <x:t>Sama ayman nabil abd el satar ali maklad</x:t>
   </x:si>
   <x:si>
-    <x:t>1240075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما طارق محمود جاب الله سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240412</x:t>
   </x:si>
   <x:si>
@@ -210,6 +210,15 @@
     <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250207</x:t>
   </x:si>
   <x:si>
@@ -253,15 +262,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمود نجاح مكاوى خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>4250184</x:t>
@@ -898,7 +898,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.520625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.650625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.490625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1267,7 +1267,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45927.7847960648</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1299,7 +1299,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1331,7 +1331,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1363,7 +1363,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1619,7 +1619,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45927.8244747685</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1651,7 +1651,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1683,7 +1683,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1715,7 +1715,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1747,7 +1747,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Lecture-35067.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35067.xlsx
@@ -75,6 +75,15 @@
     <x:t>Bilal Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جورج ممدوح محروس رزق مرقس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOURG</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240217</x:t>
   </x:si>
   <x:si>
@@ -262,15 +271,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
   </x:si>
   <x:si>
     <x:t>4250185</x:t>
@@ -1139,7 +1139,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4151114583</x:v>
+        <x:v>45929.5531209491</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1171,7 +1171,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6717293634</x:v>
+        <x:v>45908.4151114583</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1203,7 +1203,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.5900731829</x:v>
+        <x:v>45907.6717293634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1235,7 +1235,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.8959554398</x:v>
+        <x:v>45919.5900731829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1267,7 +1267,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.7847960648</x:v>
+        <x:v>45920.8959554398</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1299,7 +1299,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45927.7847960648</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1331,7 +1331,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1363,7 +1363,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1395,7 +1395,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1427,7 +1427,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1459,7 +1459,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1491,7 +1491,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1523,7 +1523,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1555,7 +1555,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.5312450232</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1587,7 +1587,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45922.5312450232</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1619,7 +1619,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.8244747685</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1651,7 +1651,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45927.8244747685</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1683,7 +1683,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1715,7 +1715,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1747,7 +1747,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1811,7 +1811,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
